--- a/预算.xlsx
+++ b/预算.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="53">
   <si>
     <t>日期</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -50,20 +50,11 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>日期</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>成都-北京</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>海航 HU7148</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>21:40 HU7347 
-海航 北京-成都</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -84,10 +75,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>0:40 到达成都</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>11:30 MU5859
 东航 大理-成都</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -115,10 +102,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>11：03 到达大理</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>合计</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -137,6 +120,122 @@
   <si>
     <t>K9688</t>
     <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>住宿</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>成都</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>丽江</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>泸沽湖</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>丽江</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>18:00 返回丽江</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>价格</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>17:00 返回丽江</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>洱海</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>古城</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>11:03 到达大理</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>7:30 玉龙雪山</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>8:00 泸沽湖</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>6:30 3U8548 
+川航 北京-成都</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>9:35 到达成都</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>拉市海</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>古镇</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>古城</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>晴天客栈</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>￥680</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://photo.blog.sina.com.cn/photo/1655236194/62a8e662x9ad110e768f7</t>
+  </si>
+  <si>
+    <t>1楼海景小套房</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>暖暖客栈</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>￥1020</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>花园露台海景房</t>
+  </si>
+  <si>
+    <t>http://www.nuannuan2012.com/home/index/roomDetail/id/MTk3MDEwMQ.html</t>
+  </si>
+  <si>
+    <t>半岛云端</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>半月拖蓝</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.bytlhotel.com/room/detailed/?room_id=1</t>
+  </si>
+  <si>
+    <t>全海景双人大床房</t>
   </si>
 </sst>
 </file>
@@ -146,7 +245,7 @@
   <numFmts count="1">
     <numFmt numFmtId="7" formatCode="&quot;¥&quot;#,##0.00;&quot;¥&quot;\-#,##0.00"/>
   </numFmts>
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="11">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -218,8 +317,23 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF333333"/>
+      <name val="Microsoft YaHei"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -254,8 +368,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -263,6 +383,24 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FFE6E6E6"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -275,7 +413,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -294,18 +432,12 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="31" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
@@ -326,6 +458,42 @@
     </xf>
     <xf numFmtId="7" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -609,499 +777,574 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J34"/>
+  <dimension ref="A1:J42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K5" sqref="K5"/>
+      <selection activeCell="J20" sqref="J20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="15.77734375" defaultRowHeight="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="18.77734375" defaultRowHeight="19.95" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="15.88671875" style="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.77734375" style="5" bestFit="1" customWidth="1"/>
-    <col min="3" max="10" width="16.5546875" style="5" bestFit="1" customWidth="1"/>
-    <col min="11" max="16384" width="15.77734375" style="5"/>
+    <col min="1" max="16384" width="18.77734375" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="3" customFormat="1" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" s="3" customFormat="1" ht="15.6">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2">
-        <v>42275</v>
+        <v>42276</v>
       </c>
       <c r="C1" s="2">
-        <v>42276</v>
+        <v>42277</v>
       </c>
       <c r="D1" s="2">
-        <v>42277</v>
+        <v>42278</v>
       </c>
       <c r="E1" s="2">
-        <v>42278</v>
+        <v>42279</v>
       </c>
       <c r="F1" s="2">
-        <v>42279</v>
+        <v>42280</v>
       </c>
       <c r="G1" s="2">
-        <v>42280</v>
+        <v>42281</v>
       </c>
       <c r="H1" s="2">
-        <v>42281</v>
+        <v>42282</v>
       </c>
       <c r="I1" s="2">
-        <v>42282</v>
+        <v>42283</v>
       </c>
       <c r="J1" s="2">
-        <v>42283</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
+        <v>42284</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" ht="31.2">
       <c r="A2" s="4">
+        <v>1.25</v>
+      </c>
+      <c r="B2" s="22" t="s">
+        <v>36</v>
+      </c>
+      <c r="C2" s="8"/>
+      <c r="D2" s="10"/>
+      <c r="E2" s="15"/>
+      <c r="F2" s="15"/>
+      <c r="G2" s="10"/>
+      <c r="H2" s="11"/>
+      <c r="I2" s="11"/>
+      <c r="J2" s="8"/>
+    </row>
+    <row r="3" spans="1:10" ht="15.6">
+      <c r="A3" s="4">
+        <v>1.2916666666666701</v>
+      </c>
+      <c r="B3" s="23"/>
+      <c r="C3" s="8"/>
+      <c r="D3" s="10"/>
+      <c r="E3" s="15"/>
+      <c r="F3" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="G3" s="10"/>
+      <c r="H3" s="11"/>
+      <c r="I3" s="11"/>
+      <c r="J3" s="8"/>
+    </row>
+    <row r="4" spans="1:10" ht="15.6">
+      <c r="A4" s="4">
         <v>0.33333333333333331</v>
       </c>
-      <c r="C2" s="10"/>
-      <c r="D2" s="10"/>
-      <c r="E2" s="12"/>
-      <c r="F2" s="12"/>
-      <c r="G2" s="12"/>
-      <c r="H2" s="13"/>
-      <c r="I2" s="13"/>
-      <c r="J2" s="10"/>
-    </row>
-    <row r="3" spans="1:10" ht="31.2" x14ac:dyDescent="0.25">
-      <c r="A3" s="4">
+      <c r="B4" s="23"/>
+      <c r="C4" s="8"/>
+      <c r="D4" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="E4" s="15"/>
+      <c r="F4" s="15"/>
+      <c r="G4" s="10"/>
+      <c r="H4" s="11"/>
+      <c r="I4" s="11"/>
+      <c r="J4" s="8"/>
+    </row>
+    <row r="5" spans="1:10" ht="31.2">
+      <c r="A5" s="4">
         <v>0.375</v>
       </c>
-      <c r="C3" s="10"/>
-      <c r="D3" s="10"/>
-      <c r="E3" s="12"/>
-      <c r="F3" s="12"/>
-      <c r="G3" s="15" t="s">
-        <v>20</v>
-      </c>
-      <c r="H3" s="13"/>
-      <c r="I3" s="13"/>
-      <c r="J3" s="10"/>
-    </row>
-    <row r="4" spans="1:10" ht="31.2" x14ac:dyDescent="0.25">
-      <c r="A4" s="4">
+      <c r="B5" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="C5" s="8"/>
+      <c r="D5" s="15"/>
+      <c r="E5" s="15"/>
+      <c r="F5" s="15"/>
+      <c r="G5" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="H5" s="11"/>
+      <c r="I5" s="11"/>
+      <c r="J5" s="8"/>
+    </row>
+    <row r="6" spans="1:10" ht="31.2">
+      <c r="A6" s="4">
         <v>0.41666666666666702</v>
       </c>
-      <c r="C4" s="10"/>
-      <c r="D4" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="E4" s="12"/>
-      <c r="F4" s="12"/>
-      <c r="G4" s="12"/>
-      <c r="H4" s="13"/>
-      <c r="I4" s="13"/>
-      <c r="J4" s="10"/>
-    </row>
-    <row r="5" spans="1:10" ht="31.2" x14ac:dyDescent="0.25">
-      <c r="A5" s="4">
+      <c r="B6" s="8"/>
+      <c r="C6" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="D6" s="15"/>
+      <c r="E6" s="15"/>
+      <c r="F6" s="15"/>
+      <c r="G6" s="23"/>
+      <c r="H6" s="11"/>
+      <c r="I6" s="11"/>
+      <c r="J6" s="8"/>
+    </row>
+    <row r="7" spans="1:10" ht="31.2">
+      <c r="A7" s="4">
         <v>0.45833333333333298</v>
       </c>
-      <c r="C5" s="10"/>
-      <c r="D5" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="E5" s="12"/>
-      <c r="F5" s="12"/>
-      <c r="G5" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="H5" s="13"/>
-      <c r="I5" s="14" t="s">
+      <c r="B7" s="8"/>
+      <c r="C7" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="D7" s="15"/>
+      <c r="E7" s="15"/>
+      <c r="F7" s="15"/>
+      <c r="G7" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="H7" s="11"/>
+      <c r="I7" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="J7" s="9" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" ht="15.6">
+      <c r="A8" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="B8" s="8"/>
+      <c r="C8" s="10"/>
+      <c r="D8" s="15"/>
+      <c r="E8" s="15"/>
+      <c r="F8" s="15"/>
+      <c r="G8" s="11"/>
+      <c r="H8" s="11"/>
+      <c r="I8" s="23"/>
+    </row>
+    <row r="9" spans="1:10" ht="15.6">
+      <c r="A9" s="4">
+        <v>0.54166666666666696</v>
+      </c>
+      <c r="B9" s="8"/>
+      <c r="C9" s="10"/>
+      <c r="D9" s="15"/>
+      <c r="E9" s="15"/>
+      <c r="F9" s="15"/>
+      <c r="G9" s="11"/>
+      <c r="H9" s="25" t="s">
+        <v>40</v>
+      </c>
+      <c r="I9" s="8" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" ht="15.6">
+      <c r="A10" s="4">
+        <v>0.58333333333333304</v>
+      </c>
+      <c r="B10" s="8"/>
+      <c r="C10" s="10"/>
+      <c r="D10" s="15"/>
+      <c r="E10" s="15"/>
+      <c r="F10" s="15"/>
+      <c r="G10" s="11"/>
+      <c r="H10" s="11"/>
+      <c r="I10" s="8"/>
+      <c r="J10" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="11" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A6" s="4">
-        <v>0.5</v>
-      </c>
-      <c r="C6" s="10"/>
-      <c r="D6" s="12"/>
-      <c r="E6" s="12"/>
-      <c r="F6" s="12"/>
-      <c r="G6" s="13"/>
-      <c r="H6" s="13"/>
-      <c r="I6" s="10"/>
-    </row>
-    <row r="7" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A7" s="4">
-        <v>0.54166666666666696</v>
-      </c>
-      <c r="C7" s="10"/>
-      <c r="D7" s="12"/>
-      <c r="E7" s="12"/>
-      <c r="F7" s="12"/>
-      <c r="G7" s="13"/>
-      <c r="H7" s="13"/>
-      <c r="I7" s="10" t="s">
+    </row>
+    <row r="11" spans="1:10" ht="15.6">
+      <c r="A11" s="4">
+        <v>0.625</v>
+      </c>
+      <c r="B11" s="8"/>
+      <c r="C11" s="24" t="s">
+        <v>38</v>
+      </c>
+      <c r="D11" s="15"/>
+      <c r="E11" s="15"/>
+      <c r="F11" s="15"/>
+      <c r="G11" s="11"/>
+      <c r="H11" s="11"/>
+      <c r="I11" s="8"/>
+    </row>
+    <row r="12" spans="1:10" ht="15.6">
+      <c r="A12" s="4">
+        <v>0.66666666666666696</v>
+      </c>
+      <c r="B12" s="8"/>
+      <c r="C12" s="10"/>
+      <c r="D12" s="15"/>
+      <c r="E12" s="15"/>
+      <c r="F12" s="15"/>
+      <c r="G12" s="11"/>
+      <c r="H12" s="11"/>
+      <c r="I12" s="8"/>
+    </row>
+    <row r="13" spans="1:10" ht="15.6">
+      <c r="A13" s="4">
+        <v>0.70833333333333304</v>
+      </c>
+      <c r="B13" s="8"/>
+      <c r="C13" s="10"/>
+      <c r="D13" s="15"/>
+      <c r="E13" s="15"/>
+      <c r="F13" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="G13" s="11"/>
+      <c r="H13" s="11"/>
+      <c r="I13" s="8"/>
+    </row>
+    <row r="14" spans="1:10" ht="15.6">
+      <c r="A14" s="4">
+        <v>0.75</v>
+      </c>
+      <c r="B14" s="8"/>
+      <c r="C14" s="10"/>
+      <c r="D14" s="15"/>
+      <c r="E14" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="F14" s="10"/>
+      <c r="G14" s="11"/>
+      <c r="H14" s="11"/>
+      <c r="I14" s="8"/>
+    </row>
+    <row r="15" spans="1:10" ht="15.6">
+      <c r="A15" s="4">
+        <v>0.79166666666666696</v>
+      </c>
+      <c r="B15" s="8"/>
+      <c r="C15" s="10"/>
+      <c r="D15" s="15"/>
+      <c r="E15" s="15"/>
+      <c r="F15" s="10"/>
+      <c r="G15" s="11"/>
+      <c r="H15" s="11"/>
+      <c r="I15" s="8"/>
+    </row>
+    <row r="16" spans="1:10" ht="15.6">
+      <c r="A16" s="4">
+        <v>0.83333333333333304</v>
+      </c>
+      <c r="B16" s="8"/>
+      <c r="C16" s="10"/>
+      <c r="D16" s="15"/>
+      <c r="E16" s="15"/>
+      <c r="F16" s="10"/>
+      <c r="G16" s="11"/>
+      <c r="H16" s="11"/>
+      <c r="I16" s="8"/>
+    </row>
+    <row r="17" spans="1:9" ht="15.6">
+      <c r="A17" s="4">
+        <v>0.875</v>
+      </c>
+      <c r="B17" s="8"/>
+      <c r="C17" s="10"/>
+      <c r="D17" s="15"/>
+      <c r="E17" s="15"/>
+      <c r="F17" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="G17" s="11"/>
+      <c r="H17" s="11"/>
+      <c r="I17" s="8"/>
+    </row>
+    <row r="18" spans="1:9" ht="15.6">
+      <c r="A18" s="4">
+        <v>0.91666666666666696</v>
+      </c>
+      <c r="B18" s="8"/>
+      <c r="C18" s="10"/>
+      <c r="D18" s="15"/>
+      <c r="E18" s="15"/>
+      <c r="F18" s="10"/>
+      <c r="G18" s="11"/>
+      <c r="H18" s="11"/>
+      <c r="I18" s="8"/>
+    </row>
+    <row r="19" spans="1:9" ht="15.6">
+      <c r="A19" s="4">
+        <v>0.95833333333333304</v>
+      </c>
+      <c r="B19" s="8"/>
+      <c r="C19" s="10"/>
+      <c r="D19" s="15"/>
+      <c r="E19" s="15"/>
+      <c r="F19" s="10"/>
+      <c r="G19" s="11"/>
+      <c r="H19" s="11"/>
+      <c r="I19" s="8"/>
+    </row>
+    <row r="20" spans="1:9" s="21" customFormat="1" ht="15.6">
+      <c r="A20" s="16">
+        <v>1</v>
+      </c>
+      <c r="B20" s="17"/>
+      <c r="C20" s="18"/>
+      <c r="D20" s="19"/>
+      <c r="E20" s="19"/>
+      <c r="F20" s="18"/>
+      <c r="G20" s="20"/>
+      <c r="H20" s="20"/>
+      <c r="I20" s="17"/>
+    </row>
+    <row r="21" spans="1:9" ht="15.6">
+      <c r="A21" s="4">
+        <v>1.0416666666666701</v>
+      </c>
+      <c r="B21" s="8"/>
+      <c r="C21" s="10"/>
+      <c r="D21" s="15"/>
+      <c r="E21" s="15"/>
+      <c r="F21" s="10"/>
+      <c r="G21" s="11"/>
+      <c r="H21" s="11"/>
+      <c r="I21" s="8"/>
+    </row>
+    <row r="22" spans="1:9" ht="15.6">
+      <c r="A22" s="4">
+        <v>1.0833333333333299</v>
+      </c>
+      <c r="B22" s="8"/>
+      <c r="C22" s="10"/>
+      <c r="D22" s="15"/>
+      <c r="E22" s="15"/>
+      <c r="F22" s="10"/>
+      <c r="G22" s="11"/>
+      <c r="H22" s="11"/>
+      <c r="I22" s="8"/>
+    </row>
+    <row r="23" spans="1:9" ht="15.6">
+      <c r="A23" s="4">
+        <v>1.125</v>
+      </c>
+      <c r="B23" s="8"/>
+      <c r="C23" s="10"/>
+      <c r="D23" s="15"/>
+      <c r="E23" s="15"/>
+      <c r="F23" s="10"/>
+      <c r="G23" s="11"/>
+      <c r="H23" s="11"/>
+      <c r="I23" s="8"/>
+    </row>
+    <row r="24" spans="1:9" ht="15.6">
+      <c r="A24" s="4">
+        <v>1.1666666666666701</v>
+      </c>
+      <c r="B24" s="8"/>
+      <c r="C24" s="10"/>
+      <c r="D24" s="15"/>
+      <c r="E24" s="15"/>
+      <c r="F24" s="10"/>
+      <c r="G24" s="11"/>
+      <c r="H24" s="11"/>
+      <c r="I24" s="8"/>
+    </row>
+    <row r="25" spans="1:9" ht="15.6">
+      <c r="A25" s="4">
+        <v>1.2083333333333299</v>
+      </c>
+      <c r="B25" s="8"/>
+      <c r="C25" s="10"/>
+      <c r="D25" s="15"/>
+      <c r="E25" s="15"/>
+      <c r="F25" s="10"/>
+      <c r="G25" s="11"/>
+      <c r="H25" s="11"/>
+      <c r="I25" s="8"/>
+    </row>
+    <row r="26" spans="1:9" s="3" customFormat="1" ht="19.95" customHeight="1">
+      <c r="A26" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D26" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="E26" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="F26" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="G26" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="H26" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="I26" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" s="3" customFormat="1" ht="19.95" customHeight="1">
+      <c r="A27" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" ht="19.95" customHeight="1">
+      <c r="A29" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="B29" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="C29" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="D29" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="E29" s="7" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="8" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A8" s="4">
-        <v>0.58333333333333304</v>
-      </c>
-      <c r="C8" s="10"/>
-      <c r="D8" s="12"/>
-      <c r="E8" s="12"/>
-      <c r="F8" s="12"/>
-      <c r="G8" s="13"/>
-      <c r="H8" s="13"/>
-      <c r="I8" s="10"/>
-      <c r="J8" s="5" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A9" s="4">
-        <v>0.625</v>
-      </c>
-      <c r="C9" s="10"/>
-      <c r="D9" s="12"/>
-      <c r="E9" s="12"/>
-      <c r="F9" s="12"/>
-      <c r="G9" s="13"/>
-      <c r="H9" s="13"/>
-      <c r="I9" s="10"/>
-    </row>
-    <row r="10" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A10" s="4">
-        <v>0.66666666666666696</v>
-      </c>
-      <c r="C10" s="10"/>
-      <c r="D10" s="12"/>
-      <c r="E10" s="12"/>
-      <c r="F10" s="12"/>
-      <c r="G10" s="13"/>
-      <c r="H10" s="13"/>
-      <c r="I10" s="10"/>
-    </row>
-    <row r="11" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A11" s="4">
-        <v>0.70833333333333304</v>
-      </c>
-      <c r="C11" s="10"/>
-      <c r="D11" s="12"/>
-      <c r="E11" s="12"/>
-      <c r="F11" s="12"/>
-      <c r="G11" s="13"/>
-      <c r="H11" s="13"/>
-      <c r="I11" s="10"/>
-    </row>
-    <row r="12" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A12" s="4">
-        <v>0.75</v>
-      </c>
-      <c r="C12" s="10"/>
-      <c r="D12" s="12"/>
-      <c r="E12" s="12"/>
-      <c r="F12" s="12"/>
-      <c r="G12" s="13"/>
-      <c r="H12" s="13"/>
-      <c r="I12" s="10"/>
-    </row>
-    <row r="13" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A13" s="4">
-        <v>0.79166666666666696</v>
-      </c>
-      <c r="C13" s="10"/>
-      <c r="D13" s="12"/>
-      <c r="E13" s="12"/>
-      <c r="F13" s="12"/>
-      <c r="G13" s="13"/>
-      <c r="H13" s="13"/>
-      <c r="I13" s="10"/>
-    </row>
-    <row r="14" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A14" s="4">
-        <v>0.83333333333333304</v>
-      </c>
-      <c r="C14" s="10"/>
-      <c r="D14" s="12"/>
-      <c r="E14" s="12"/>
-      <c r="F14" s="12"/>
-      <c r="G14" s="13"/>
-      <c r="H14" s="13"/>
-      <c r="I14" s="10"/>
-    </row>
-    <row r="15" spans="1:10" ht="31.2" x14ac:dyDescent="0.25">
-      <c r="A15" s="4">
-        <v>0.875</v>
-      </c>
-      <c r="B15" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="C15" s="10"/>
-      <c r="D15" s="12"/>
-      <c r="E15" s="12"/>
-      <c r="F15" s="12"/>
-      <c r="G15" s="13"/>
-      <c r="H15" s="13"/>
-      <c r="I15" s="10"/>
-    </row>
-    <row r="16" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A16" s="4">
-        <v>0.91666666666666696</v>
-      </c>
-      <c r="C16" s="10"/>
-      <c r="D16" s="12"/>
-      <c r="E16" s="12"/>
-      <c r="F16" s="12"/>
-      <c r="G16" s="13"/>
-      <c r="H16" s="13"/>
-      <c r="I16" s="10"/>
-    </row>
-    <row r="17" spans="1:9" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A17" s="4">
-        <v>0.95833333333333304</v>
-      </c>
-      <c r="C17" s="10"/>
-      <c r="D17" s="12"/>
-      <c r="E17" s="12"/>
-      <c r="F17" s="12"/>
-      <c r="G17" s="13"/>
-      <c r="H17" s="13"/>
-      <c r="I17" s="10"/>
-    </row>
-    <row r="18" spans="1:9" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A18" s="4">
-        <v>1</v>
-      </c>
-      <c r="B18" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="C18" s="10"/>
-      <c r="D18" s="12"/>
-      <c r="E18" s="12"/>
-      <c r="F18" s="12"/>
-      <c r="G18" s="13"/>
-      <c r="H18" s="13"/>
-      <c r="I18" s="10"/>
-    </row>
-    <row r="19" spans="1:9" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A19" s="4">
-        <v>1.0416666666666701</v>
-      </c>
-      <c r="B19" s="10"/>
-      <c r="C19" s="10"/>
-      <c r="D19" s="12"/>
-      <c r="E19" s="12"/>
-      <c r="F19" s="12"/>
-      <c r="G19" s="13"/>
-      <c r="H19" s="13"/>
-      <c r="I19" s="10"/>
-    </row>
-    <row r="20" spans="1:9" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A20" s="4">
-        <v>1.0833333333333299</v>
-      </c>
-      <c r="B20" s="10"/>
-      <c r="C20" s="10"/>
-      <c r="D20" s="12"/>
-      <c r="E20" s="12"/>
-      <c r="F20" s="12"/>
-      <c r="G20" s="13"/>
-      <c r="H20" s="13"/>
-      <c r="I20" s="10"/>
-    </row>
-    <row r="21" spans="1:9" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A21" s="4">
-        <v>1.125</v>
-      </c>
-      <c r="B21" s="10"/>
-      <c r="C21" s="10"/>
-      <c r="D21" s="12"/>
-      <c r="E21" s="12"/>
-      <c r="F21" s="12"/>
-      <c r="G21" s="13"/>
-      <c r="H21" s="13"/>
-      <c r="I21" s="10"/>
-    </row>
-    <row r="22" spans="1:9" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A22" s="4">
-        <v>1.1666666666666701</v>
-      </c>
-      <c r="B22" s="10"/>
-      <c r="C22" s="10"/>
-      <c r="D22" s="12"/>
-      <c r="E22" s="12"/>
-      <c r="F22" s="12"/>
-      <c r="G22" s="13"/>
-      <c r="H22" s="13"/>
-      <c r="I22" s="10"/>
-    </row>
-    <row r="23" spans="1:9" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A23" s="4">
-        <v>1.2083333333333299</v>
-      </c>
-      <c r="B23" s="10"/>
-      <c r="C23" s="10"/>
-      <c r="D23" s="12"/>
-      <c r="E23" s="12"/>
-      <c r="F23" s="12"/>
-      <c r="G23" s="13"/>
-      <c r="H23" s="13"/>
-      <c r="I23" s="10"/>
-    </row>
-    <row r="24" spans="1:9" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A24" s="4">
-        <v>1.25</v>
-      </c>
-      <c r="B24" s="10"/>
-      <c r="C24" s="10"/>
-      <c r="D24" s="12"/>
-      <c r="E24" s="12"/>
-      <c r="F24" s="12"/>
-      <c r="G24" s="13"/>
-      <c r="H24" s="13"/>
-      <c r="I24" s="10"/>
-    </row>
-    <row r="25" spans="1:9" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A25" s="4">
-        <v>1.2916666666666701</v>
-      </c>
-      <c r="B25" s="10"/>
-      <c r="C25" s="10"/>
-      <c r="D25" s="12"/>
-      <c r="E25" s="12"/>
-      <c r="F25" s="12"/>
-      <c r="G25" s="13"/>
-      <c r="H25" s="13"/>
-      <c r="I25" s="10"/>
-    </row>
-    <row r="26" spans="1:9" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A26" s="4">
-        <v>1.3333333333333299</v>
-      </c>
-      <c r="B26" s="10"/>
-      <c r="C26" s="10"/>
-      <c r="D26" s="12"/>
-      <c r="E26" s="12"/>
-      <c r="F26" s="12"/>
-      <c r="G26" s="13"/>
-      <c r="H26" s="13"/>
-      <c r="I26" s="10"/>
-    </row>
-    <row r="29" spans="1:9" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="B29" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="C29" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="D29" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="E29" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="F29" s="8" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:9" ht="19.95" customHeight="1">
       <c r="A30" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="B30" s="9">
-        <v>42275</v>
-      </c>
-      <c r="C30" s="5" t="s">
+      <c r="B30" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="D30" s="16">
+      <c r="C30" s="14">
         <v>1159</v>
       </c>
-      <c r="E30" s="16">
-        <f>D30*2</f>
+      <c r="D30" s="14">
+        <f>C30*2</f>
         <v>2318</v>
       </c>
-      <c r="F30" s="16">
-        <f>SUM(E30:E34)</f>
+      <c r="E30" s="14">
+        <f>SUM(D30:D34)</f>
         <v>8903</v>
       </c>
     </row>
-    <row r="31" spans="1:9" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:9" ht="19.95" customHeight="1">
       <c r="A31" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B31" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="B31" s="9">
-        <v>42283</v>
-      </c>
-      <c r="C31" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="D31" s="16">
+      <c r="C31" s="14">
         <v>1455</v>
       </c>
-      <c r="E31" s="16">
-        <f t="shared" ref="E31:E34" si="0">D31*2</f>
+      <c r="D31" s="14">
+        <f t="shared" ref="D31:D34" si="0">C31*2</f>
         <v>2910</v>
       </c>
     </row>
-    <row r="32" spans="1:9" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:9" ht="19.95" customHeight="1">
       <c r="A32" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="B32" s="9">
-        <v>42277</v>
-      </c>
-      <c r="C32" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="D32" s="16">
+        <v>9</v>
+      </c>
+      <c r="B32" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C32" s="14">
         <v>899</v>
       </c>
-      <c r="E32" s="16">
+      <c r="D32" s="14">
         <f t="shared" si="0"/>
         <v>1798</v>
       </c>
     </row>
-    <row r="33" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:4" ht="19.95" customHeight="1">
       <c r="A33" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="B33" s="9">
-        <v>42282</v>
-      </c>
-      <c r="C33" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="D33" s="16">
+        <v>21</v>
+      </c>
+      <c r="B33" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C33" s="14">
         <v>861</v>
       </c>
-      <c r="E33" s="16">
+      <c r="D33" s="14">
         <f t="shared" si="0"/>
         <v>1722</v>
       </c>
     </row>
-    <row r="34" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:4" ht="19.95" customHeight="1">
       <c r="A34" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="B34" s="9">
-        <v>42280</v>
-      </c>
-      <c r="C34" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="D34" s="16">
+        <v>20</v>
+      </c>
+      <c r="B34" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C34" s="14">
         <v>77.5</v>
       </c>
-      <c r="E34" s="16">
+      <c r="D34" s="14">
         <f t="shared" si="0"/>
         <v>155</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" ht="19.95" customHeight="1">
+      <c r="A39" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="B39" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="C39" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="D39" s="5" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" ht="19.95" customHeight="1">
+      <c r="A40" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="B40" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="C40" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="D40" s="5" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" ht="19.95" customHeight="1">
+      <c r="A41" s="5" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" ht="19.95" customHeight="1" thickBot="1">
+      <c r="A42" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="C42" s="26" t="s">
+        <v>52</v>
+      </c>
+      <c r="D42" s="5" t="s">
+        <v>51</v>
       </c>
     </row>
   </sheetData>

--- a/预算.xlsx
+++ b/预算.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\BennyOnce\Documents\GitHub\saving-benny\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Git\saving-benny\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="10824"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="10830"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="40">
   <si>
     <t>日期</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -54,24 +54,7 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>海航 HU7148</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>10:05 JD5135
-首航 成都-丽江</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>成都-丽江</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>首航 JD5135</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>11:35 到达丽江</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -150,92 +133,62 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>17:00 返回丽江</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>洱海</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <t>11:03 到达大理</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>8:00 泸沽湖</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>拉市海</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>古城</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>11:03 到达大理</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>7:30 玉龙雪山</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>8:00 泸沽湖</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>6:30 3U8548 
+    <t>实际支出</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>20:30 3U8890
 川航 北京-成都</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>9:35 到达成都</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>拉市海</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>古镇</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>古城</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>晴天客栈</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>￥680</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://photo.blog.sina.com.cn/photo/1655236194/62a8e662x9ad110e768f7</t>
-  </si>
-  <si>
-    <t>1楼海景小套房</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>暖暖客栈</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>￥1020</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>花园露台海景房</t>
-  </si>
-  <si>
-    <t>http://www.nuannuan2012.com/home/index/roomDetail/id/MTk3MDEwMQ.html</t>
-  </si>
-  <si>
-    <t>半岛云端</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>半月拖蓝</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://www.bytlhotel.com/room/detailed/?room_id=1</t>
-  </si>
-  <si>
-    <t>全海景双人大床房</t>
+    <t>23:40 到达成都</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>大理</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>洱海</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>12:15 到达丽江</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>10:45 CA4457
+首航 成都-丽江</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>海航 HU7148</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>国行 CA4457</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -453,9 +406,6 @@
     <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="7" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
@@ -479,9 +429,6 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
@@ -494,6 +441,12 @@
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -777,437 +730,442 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J42"/>
+  <dimension ref="A1:K42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J20" sqref="J20"/>
+      <selection activeCell="C39" sqref="C39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="18.77734375" defaultRowHeight="19.95" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="18.75" defaultRowHeight="19.899999999999999" customHeight="1"/>
   <cols>
-    <col min="1" max="16384" width="18.77734375" style="5"/>
+    <col min="1" max="16384" width="18.75" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="3" customFormat="1" ht="15.6">
+    <row r="1" spans="1:11" s="3" customFormat="1" ht="14.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2">
+        <v>42275</v>
+      </c>
+      <c r="C1" s="2">
         <v>42276</v>
       </c>
-      <c r="C1" s="2">
+      <c r="D1" s="2">
         <v>42277</v>
       </c>
-      <c r="D1" s="2">
+      <c r="E1" s="2">
         <v>42278</v>
       </c>
-      <c r="E1" s="2">
+      <c r="F1" s="2">
         <v>42279</v>
       </c>
-      <c r="F1" s="2">
+      <c r="G1" s="2">
         <v>42280</v>
       </c>
-      <c r="G1" s="2">
+      <c r="H1" s="2">
         <v>42281</v>
       </c>
-      <c r="H1" s="2">
+      <c r="I1" s="2">
         <v>42282</v>
       </c>
-      <c r="I1" s="2">
+      <c r="J1" s="2">
         <v>42283</v>
       </c>
-      <c r="J1" s="2">
+      <c r="K1" s="2">
         <v>42284</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="31.2">
+    <row r="2" spans="1:11" ht="14.25">
       <c r="A2" s="4">
         <v>1.25</v>
       </c>
-      <c r="B2" s="22" t="s">
-        <v>36</v>
-      </c>
+      <c r="B2" s="4"/>
       <c r="C2" s="8"/>
-      <c r="D2" s="10"/>
-      <c r="E2" s="15"/>
-      <c r="F2" s="15"/>
-      <c r="G2" s="10"/>
+      <c r="D2" s="8"/>
+      <c r="E2" s="10"/>
+      <c r="F2" s="14"/>
+      <c r="G2" s="14"/>
       <c r="H2" s="11"/>
       <c r="I2" s="11"/>
       <c r="J2" s="8"/>
     </row>
-    <row r="3" spans="1:10" ht="15.6">
+    <row r="3" spans="1:11" ht="14.25">
       <c r="A3" s="4">
         <v>1.2916666666666701</v>
       </c>
-      <c r="B3" s="23"/>
+      <c r="B3" s="4"/>
       <c r="C3" s="8"/>
-      <c r="D3" s="10"/>
-      <c r="E3" s="15"/>
-      <c r="F3" s="15" t="s">
-        <v>34</v>
-      </c>
-      <c r="G3" s="10"/>
+      <c r="D3" s="8"/>
+      <c r="E3" s="10"/>
+      <c r="F3" s="14"/>
+      <c r="G3" s="14"/>
       <c r="H3" s="11"/>
       <c r="I3" s="11"/>
       <c r="J3" s="8"/>
     </row>
-    <row r="4" spans="1:10" ht="15.6">
+    <row r="4" spans="1:11" ht="14.25">
       <c r="A4" s="4">
         <v>0.33333333333333331</v>
       </c>
-      <c r="B4" s="23"/>
+      <c r="B4" s="4"/>
       <c r="C4" s="8"/>
-      <c r="D4" s="15" t="s">
-        <v>35</v>
-      </c>
-      <c r="E4" s="15"/>
-      <c r="F4" s="15"/>
-      <c r="G4" s="10"/>
+      <c r="D4" s="8"/>
+      <c r="E4" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="F4" s="14"/>
+      <c r="G4" s="14"/>
       <c r="H4" s="11"/>
       <c r="I4" s="11"/>
       <c r="J4" s="8"/>
     </row>
-    <row r="5" spans="1:10" ht="31.2">
+    <row r="5" spans="1:11" ht="28.5">
       <c r="A5" s="4">
         <v>0.375</v>
       </c>
-      <c r="B5" s="8" t="s">
-        <v>37</v>
-      </c>
+      <c r="B5" s="4"/>
       <c r="C5" s="8"/>
-      <c r="D5" s="15"/>
-      <c r="E5" s="15"/>
-      <c r="F5" s="15"/>
-      <c r="G5" s="13" t="s">
-        <v>17</v>
+      <c r="D5" s="8"/>
+      <c r="E5" s="14"/>
+      <c r="F5" s="14"/>
+      <c r="G5" s="26" t="s">
+        <v>13</v>
       </c>
       <c r="H5" s="11"/>
       <c r="I5" s="11"/>
       <c r="J5" s="8"/>
     </row>
-    <row r="6" spans="1:10" ht="31.2">
+    <row r="6" spans="1:11" ht="28.5">
       <c r="A6" s="4">
         <v>0.41666666666666702</v>
       </c>
-      <c r="B6" s="8"/>
-      <c r="C6" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="D6" s="15"/>
-      <c r="E6" s="15"/>
-      <c r="F6" s="15"/>
-      <c r="G6" s="23"/>
+      <c r="B6" s="4"/>
+      <c r="C6" s="8"/>
+      <c r="D6" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="E6" s="14"/>
+      <c r="F6" s="14"/>
+      <c r="G6" s="21"/>
       <c r="H6" s="11"/>
       <c r="I6" s="11"/>
       <c r="J6" s="8"/>
     </row>
-    <row r="7" spans="1:10" ht="31.2">
+    <row r="7" spans="1:11" ht="28.5">
       <c r="A7" s="4">
         <v>0.45833333333333298</v>
       </c>
-      <c r="B7" s="8"/>
-      <c r="C7" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="D7" s="15"/>
-      <c r="E7" s="15"/>
-      <c r="F7" s="15"/>
+      <c r="B7" s="4"/>
+      <c r="C7" s="8"/>
+      <c r="E7" s="14"/>
+      <c r="F7" s="14"/>
       <c r="G7" s="11" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="H7" s="11"/>
       <c r="I7" s="12" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="J7" s="9" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" ht="15.6">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" ht="14.25">
       <c r="A8" s="4">
         <v>0.5</v>
       </c>
-      <c r="B8" s="8"/>
-      <c r="C8" s="10"/>
-      <c r="D8" s="15"/>
-      <c r="E8" s="15"/>
-      <c r="F8" s="15"/>
+      <c r="B8" s="4"/>
+      <c r="C8" s="8"/>
+      <c r="D8" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="E8" s="14"/>
+      <c r="F8" s="14"/>
       <c r="G8" s="11"/>
       <c r="H8" s="11"/>
-      <c r="I8" s="23"/>
-    </row>
-    <row r="9" spans="1:10" ht="15.6">
+      <c r="I8" s="21"/>
+    </row>
+    <row r="9" spans="1:11" ht="14.25">
       <c r="A9" s="4">
         <v>0.54166666666666696</v>
       </c>
-      <c r="B9" s="8"/>
-      <c r="C9" s="10"/>
-      <c r="D9" s="15"/>
-      <c r="E9" s="15"/>
-      <c r="F9" s="15"/>
+      <c r="B9" s="4"/>
+      <c r="C9" s="8"/>
+      <c r="D9" s="10"/>
+      <c r="E9" s="14"/>
+      <c r="F9" s="14"/>
       <c r="G9" s="11"/>
-      <c r="H9" s="25" t="s">
-        <v>40</v>
+      <c r="H9" s="23" t="s">
+        <v>30</v>
       </c>
       <c r="I9" s="8" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" ht="15.6">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" ht="14.25">
       <c r="A10" s="4">
         <v>0.58333333333333304</v>
       </c>
-      <c r="B10" s="8"/>
-      <c r="C10" s="10"/>
-      <c r="D10" s="15"/>
-      <c r="E10" s="15"/>
-      <c r="F10" s="15"/>
+      <c r="B10" s="4"/>
+      <c r="C10" s="8"/>
+      <c r="D10" s="10"/>
+      <c r="E10" s="14"/>
+      <c r="F10" s="14"/>
       <c r="G10" s="11"/>
       <c r="H10" s="11"/>
       <c r="I10" s="8"/>
       <c r="J10" s="5" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" ht="15.6">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" ht="14.25">
       <c r="A11" s="4">
         <v>0.625</v>
       </c>
-      <c r="B11" s="8"/>
-      <c r="C11" s="24" t="s">
-        <v>38</v>
-      </c>
-      <c r="D11" s="15"/>
-      <c r="E11" s="15"/>
-      <c r="F11" s="15"/>
+      <c r="B11" s="4"/>
+      <c r="C11" s="8"/>
+      <c r="D11" s="22" t="s">
+        <v>29</v>
+      </c>
+      <c r="E11" s="14"/>
+      <c r="F11" s="14"/>
       <c r="G11" s="11"/>
       <c r="H11" s="11"/>
       <c r="I11" s="8"/>
     </row>
-    <row r="12" spans="1:10" ht="15.6">
+    <row r="12" spans="1:11" ht="14.25">
       <c r="A12" s="4">
         <v>0.66666666666666696</v>
       </c>
-      <c r="B12" s="8"/>
-      <c r="C12" s="10"/>
-      <c r="D12" s="15"/>
-      <c r="E12" s="15"/>
-      <c r="F12" s="15"/>
+      <c r="B12" s="4"/>
+      <c r="C12" s="8"/>
+      <c r="D12" s="10"/>
+      <c r="E12" s="14"/>
+      <c r="F12" s="14"/>
       <c r="G12" s="11"/>
       <c r="H12" s="11"/>
       <c r="I12" s="8"/>
     </row>
-    <row r="13" spans="1:10" ht="15.6">
+    <row r="13" spans="1:11" ht="14.25">
       <c r="A13" s="4">
         <v>0.70833333333333304</v>
       </c>
-      <c r="B13" s="8"/>
-      <c r="C13" s="10"/>
-      <c r="D13" s="15"/>
-      <c r="E13" s="15"/>
-      <c r="F13" s="15" t="s">
-        <v>30</v>
-      </c>
+      <c r="B13" s="4"/>
+      <c r="C13" s="8"/>
+      <c r="D13" s="10"/>
+      <c r="E13" s="14"/>
+      <c r="F13" s="14"/>
       <c r="G13" s="11"/>
       <c r="H13" s="11"/>
       <c r="I13" s="8"/>
     </row>
-    <row r="14" spans="1:10" ht="15.6">
+    <row r="14" spans="1:11" ht="14.25">
       <c r="A14" s="4">
         <v>0.75</v>
       </c>
-      <c r="B14" s="8"/>
-      <c r="C14" s="10"/>
-      <c r="D14" s="15"/>
-      <c r="E14" s="15" t="s">
-        <v>28</v>
-      </c>
-      <c r="F14" s="10"/>
+      <c r="B14" s="4"/>
+      <c r="C14" s="8"/>
+      <c r="D14" s="10"/>
+      <c r="E14" s="14"/>
+      <c r="F14" s="14" t="s">
+        <v>24</v>
+      </c>
       <c r="G14" s="11"/>
       <c r="H14" s="11"/>
       <c r="I14" s="8"/>
     </row>
-    <row r="15" spans="1:10" ht="15.6">
+    <row r="15" spans="1:11" ht="14.25">
       <c r="A15" s="4">
         <v>0.79166666666666696</v>
       </c>
-      <c r="B15" s="8"/>
-      <c r="C15" s="10"/>
-      <c r="D15" s="15"/>
-      <c r="E15" s="15"/>
-      <c r="F15" s="10"/>
+      <c r="B15" s="4"/>
+      <c r="C15" s="8"/>
+      <c r="D15" s="10"/>
+      <c r="E15" s="14"/>
+      <c r="F15" s="14"/>
       <c r="G15" s="11"/>
       <c r="H15" s="11"/>
       <c r="I15" s="8"/>
     </row>
-    <row r="16" spans="1:10" ht="15.6">
+    <row r="16" spans="1:11" ht="28.5">
       <c r="A16" s="4">
         <v>0.83333333333333304</v>
       </c>
-      <c r="B16" s="8"/>
-      <c r="C16" s="10"/>
-      <c r="D16" s="15"/>
-      <c r="E16" s="15"/>
-      <c r="F16" s="10"/>
+      <c r="B16" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="C16" s="8"/>
+      <c r="D16" s="10"/>
+      <c r="E16" s="14"/>
+      <c r="F16" s="14"/>
       <c r="G16" s="11"/>
       <c r="H16" s="11"/>
       <c r="I16" s="8"/>
     </row>
-    <row r="17" spans="1:9" ht="15.6">
+    <row r="17" spans="1:10" ht="14.25">
       <c r="A17" s="4">
         <v>0.875</v>
       </c>
-      <c r="B17" s="8"/>
-      <c r="C17" s="10"/>
-      <c r="D17" s="15"/>
-      <c r="E17" s="15"/>
-      <c r="F17" s="24" t="s">
-        <v>39</v>
-      </c>
+      <c r="B17" s="9"/>
+      <c r="C17" s="8"/>
+      <c r="D17" s="10"/>
+      <c r="E17" s="14"/>
+      <c r="F17" s="14"/>
       <c r="G17" s="11"/>
       <c r="H17" s="11"/>
       <c r="I17" s="8"/>
     </row>
-    <row r="18" spans="1:9" ht="15.6">
+    <row r="18" spans="1:10" ht="14.25">
       <c r="A18" s="4">
         <v>0.91666666666666696</v>
       </c>
-      <c r="B18" s="8"/>
-      <c r="C18" s="10"/>
-      <c r="D18" s="15"/>
-      <c r="E18" s="15"/>
-      <c r="F18" s="10"/>
+      <c r="B18" s="9"/>
+      <c r="C18" s="8"/>
+      <c r="D18" s="10"/>
+      <c r="E18" s="14"/>
+      <c r="F18" s="14"/>
       <c r="G18" s="11"/>
       <c r="H18" s="11"/>
       <c r="I18" s="8"/>
     </row>
-    <row r="19" spans="1:9" ht="15.6">
+    <row r="19" spans="1:10" ht="14.25">
       <c r="A19" s="4">
         <v>0.95833333333333304</v>
       </c>
-      <c r="B19" s="8"/>
-      <c r="C19" s="10"/>
-      <c r="D19" s="15"/>
-      <c r="E19" s="15"/>
-      <c r="F19" s="10"/>
+      <c r="B19" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="C19" s="8"/>
+      <c r="D19" s="10"/>
+      <c r="E19" s="14"/>
+      <c r="F19" s="14"/>
       <c r="G19" s="11"/>
       <c r="H19" s="11"/>
       <c r="I19" s="8"/>
     </row>
-    <row r="20" spans="1:9" s="21" customFormat="1" ht="15.6">
-      <c r="A20" s="16">
+    <row r="20" spans="1:10" s="20" customFormat="1" ht="14.25">
+      <c r="A20" s="15">
         <v>1</v>
       </c>
-      <c r="B20" s="17"/>
-      <c r="C20" s="18"/>
-      <c r="D20" s="19"/>
-      <c r="E20" s="19"/>
+      <c r="B20" s="25"/>
+      <c r="C20" s="16"/>
+      <c r="D20" s="17"/>
+      <c r="E20" s="18"/>
       <c r="F20" s="18"/>
-      <c r="G20" s="20"/>
-      <c r="H20" s="20"/>
-      <c r="I20" s="17"/>
-    </row>
-    <row r="21" spans="1:9" ht="15.6">
+      <c r="G20" s="19"/>
+      <c r="H20" s="19"/>
+      <c r="I20" s="16"/>
+    </row>
+    <row r="21" spans="1:10" ht="14.25">
       <c r="A21" s="4">
         <v>1.0416666666666701</v>
       </c>
-      <c r="B21" s="8"/>
-      <c r="C21" s="10"/>
-      <c r="D21" s="15"/>
-      <c r="E21" s="15"/>
-      <c r="F21" s="10"/>
+      <c r="B21" s="9"/>
+      <c r="C21" s="8"/>
+      <c r="D21" s="10"/>
+      <c r="E21" s="14"/>
+      <c r="F21" s="14"/>
       <c r="G21" s="11"/>
       <c r="H21" s="11"/>
       <c r="I21" s="8"/>
     </row>
-    <row r="22" spans="1:9" ht="15.6">
+    <row r="22" spans="1:10" ht="14.25">
       <c r="A22" s="4">
         <v>1.0833333333333299</v>
       </c>
-      <c r="B22" s="8"/>
-      <c r="C22" s="10"/>
-      <c r="D22" s="15"/>
-      <c r="E22" s="15"/>
-      <c r="F22" s="10"/>
+      <c r="B22" s="9"/>
+      <c r="C22" s="8"/>
+      <c r="D22" s="10"/>
+      <c r="E22" s="14"/>
+      <c r="F22" s="14"/>
       <c r="G22" s="11"/>
       <c r="H22" s="11"/>
       <c r="I22" s="8"/>
     </row>
-    <row r="23" spans="1:9" ht="15.6">
+    <row r="23" spans="1:10" ht="14.25">
       <c r="A23" s="4">
         <v>1.125</v>
       </c>
-      <c r="B23" s="8"/>
-      <c r="C23" s="10"/>
-      <c r="D23" s="15"/>
-      <c r="E23" s="15"/>
-      <c r="F23" s="10"/>
+      <c r="B23" s="9"/>
+      <c r="C23" s="8"/>
+      <c r="D23" s="10"/>
+      <c r="E23" s="14"/>
+      <c r="F23" s="14"/>
       <c r="G23" s="11"/>
       <c r="H23" s="11"/>
       <c r="I23" s="8"/>
     </row>
-    <row r="24" spans="1:9" ht="15.6">
+    <row r="24" spans="1:10" ht="14.25">
       <c r="A24" s="4">
         <v>1.1666666666666701</v>
       </c>
-      <c r="B24" s="8"/>
-      <c r="C24" s="10"/>
-      <c r="D24" s="15"/>
-      <c r="E24" s="15"/>
-      <c r="F24" s="10"/>
+      <c r="B24" s="9"/>
+      <c r="C24" s="8"/>
+      <c r="D24" s="10"/>
+      <c r="E24" s="14"/>
+      <c r="F24" s="14"/>
       <c r="G24" s="11"/>
       <c r="H24" s="11"/>
       <c r="I24" s="8"/>
     </row>
-    <row r="25" spans="1:9" ht="15.6">
+    <row r="25" spans="1:10" ht="14.25">
       <c r="A25" s="4">
         <v>1.2083333333333299</v>
       </c>
-      <c r="B25" s="8"/>
-      <c r="C25" s="10"/>
-      <c r="D25" s="15"/>
-      <c r="E25" s="15"/>
-      <c r="F25" s="10"/>
+      <c r="B25" s="9"/>
+      <c r="C25" s="8"/>
+      <c r="D25" s="10"/>
+      <c r="E25" s="14"/>
+      <c r="F25" s="14"/>
       <c r="G25" s="11"/>
       <c r="H25" s="11"/>
       <c r="I25" s="8"/>
     </row>
-    <row r="26" spans="1:9" s="3" customFormat="1" ht="19.95" customHeight="1">
+    <row r="26" spans="1:10" s="3" customFormat="1" ht="19.899999999999999" customHeight="1">
       <c r="A26" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D26" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E26" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="F26" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="B26" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="C26" s="3" t="s">
+      <c r="G26" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="H26" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="I26" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="J26" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" s="3" customFormat="1" ht="19.899999999999999" customHeight="1">
+      <c r="A27" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="D26" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="E26" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="F26" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="G26" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="H26" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="I26" s="3" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9" s="3" customFormat="1" ht="19.95" customHeight="1">
-      <c r="A27" s="3" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9" ht="19.95" customHeight="1">
+      <c r="B27" s="13">
+        <v>140</v>
+      </c>
+      <c r="C27" s="13">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" ht="19.899999999999999" customHeight="1">
       <c r="A29" s="6" t="s">
         <v>1</v>
       </c>
@@ -1218,134 +1176,109 @@
         <v>5</v>
       </c>
       <c r="D29" s="7" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9" ht="19.95" customHeight="1">
+        <v>15</v>
+      </c>
+      <c r="F29" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="G29" s="7" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" ht="19.899999999999999" customHeight="1">
       <c r="A30" s="5" t="s">
         <v>2</v>
       </c>
       <c r="B30" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="C30" s="14">
+      <c r="C30" s="13">
         <v>1159</v>
       </c>
-      <c r="D30" s="14">
+      <c r="D30" s="13">
         <f>C30*2</f>
         <v>2318</v>
       </c>
-      <c r="E30" s="14">
+      <c r="E30" s="13">
         <f>SUM(D30:D34)</f>
         <v>8903</v>
       </c>
-    </row>
-    <row r="31" spans="1:9" ht="19.95" customHeight="1">
+      <c r="F30" s="13">
+        <v>1948</v>
+      </c>
+      <c r="G30" s="13">
+        <f>SUM(F30:F34)</f>
+        <v>3088</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" ht="19.899999999999999" customHeight="1">
       <c r="A31" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B31" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="C31" s="13">
+        <v>899</v>
+      </c>
+      <c r="D31" s="13">
+        <f>C31*2</f>
+        <v>1798</v>
+      </c>
+      <c r="F31" s="13">
+        <v>1140</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" ht="19.899999999999999" customHeight="1">
+      <c r="A32" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B32" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C32" s="13">
+        <v>861</v>
+      </c>
+      <c r="D32" s="13">
+        <f>C32*2</f>
+        <v>1722</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" ht="19.899999999999999" customHeight="1">
+      <c r="A33" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="B31" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="C31" s="14">
+      <c r="B33" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="C33" s="13">
         <v>1455</v>
       </c>
-      <c r="D31" s="14">
-        <f t="shared" ref="D31:D34" si="0">C31*2</f>
+      <c r="D33" s="13">
+        <f t="shared" ref="D33:D34" si="0">C33*2</f>
         <v>2910</v>
       </c>
     </row>
-    <row r="32" spans="1:9" ht="19.95" customHeight="1">
-      <c r="A32" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="B32" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C32" s="14">
-        <v>899</v>
-      </c>
-      <c r="D32" s="14">
-        <f t="shared" si="0"/>
-        <v>1798</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" ht="19.95" customHeight="1">
-      <c r="A33" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="B33" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="C33" s="14">
-        <v>861</v>
-      </c>
-      <c r="D33" s="14">
-        <f t="shared" si="0"/>
-        <v>1722</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" ht="19.95" customHeight="1">
+    <row r="34" spans="1:4" ht="19.899999999999999" customHeight="1">
       <c r="A34" s="5" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="B34" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="C34" s="14">
+        <v>18</v>
+      </c>
+      <c r="C34" s="13">
         <v>77.5</v>
       </c>
-      <c r="D34" s="14">
+      <c r="D34" s="13">
         <f t="shared" si="0"/>
         <v>155</v>
       </c>
     </row>
-    <row r="39" spans="1:4" ht="19.95" customHeight="1">
-      <c r="A39" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="B39" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="C39" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="D39" s="5" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" ht="19.95" customHeight="1">
-      <c r="A40" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="B40" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="C40" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="D40" s="5" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" ht="19.95" customHeight="1">
-      <c r="A41" s="5" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" ht="19.95" customHeight="1" thickBot="1">
-      <c r="A42" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="C42" s="26" t="s">
-        <v>52</v>
-      </c>
-      <c r="D42" s="5" t="s">
-        <v>51</v>
-      </c>
+    <row r="42" spans="1:4" ht="19.899999999999999" customHeight="1" thickBot="1">
+      <c r="C42" s="24"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
